--- a/biology/Zoologie/Gelechioidea/Gelechioidea.xlsx
+++ b/biology/Zoologie/Gelechioidea/Gelechioidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Gelechioidea sont une super-famille de lépidoptères (papillons) qui regroupe 16 familles et environ 18 500 espèces[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Gelechioidea sont une super-famille de lépidoptères (papillons) qui regroupe 16 familles et environ 18 500 espèces.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La systématique des Gelechioidea est en évolution rapide. Dans les années 2010, des études de phylogénétique moléculaire ont conduit à reconnaître l'existence des 16 familles suivantes[2],[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La systématique des Gelechioidea est en évolution rapide. Dans les années 2010, des études de phylogénétique moléculaire ont conduit à reconnaître l'existence des 16 familles suivantes, :
 Autostichidae Le Marchand, 1947
 Lecithoceridae Le Marchand, 1947
 Xyloryctidae Meyrick, 1890
@@ -533,7 +547,7 @@
 Le rang et le placement des taxons suivants restent incertains :
 Schistonoeidae Hodges, 1998
 Epimarptidae Meyrick, 1914
-Une analyse génétique fut réalisée par Heikkila et al. en 2015[4] aboutissant au cladogramme ci-dessous :
+Une analyse génétique fut réalisée par Heikkila et al. en 2015 aboutissant au cladogramme ci-dessous :
 Comme on peut le voir sur le schéma ci-dessus, certaines familles ne sont plus des groupements monophylétiques, et certaines sous-familles (Aeolanthinae, Hypertrophinae, Oditinae pour la famille des Depressariidae ; Agonoxeninae pour la famille des Elachistidae) ne sont pas présente. 
 </t>
         </is>
